--- a/documentation/Backlog.xlsx
+++ b/documentation/Backlog.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10210"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cgatton/Documents/GitHub/EECS_448/Proj02/Doodle/documentation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zach\Documents\GitHub\Doodle\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5D335BA7-EC38-384A-B261-C043089ABDD6}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16420" xr2:uid="{7501A3ED-628E-EF48-B74D-A8A826985083}"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>TODO List</t>
   </si>
@@ -37,12 +36,36 @@
   </si>
   <si>
     <t>Priority</t>
+  </si>
+  <si>
+    <t>Fix read and show it in UI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prevent past dates </t>
+  </si>
+  <si>
+    <t>KEY</t>
+  </si>
+  <si>
+    <t>1 to 5</t>
+  </si>
+  <si>
+    <t>&gt;0</t>
+  </si>
+  <si>
+    <t>time (in hrs)</t>
+  </si>
+  <si>
+    <t>1 highest</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -52,7 +75,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -62,6 +85,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -78,12 +113,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="16" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -397,34 +435,88 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA3CF8B6-4EB0-CB4B-8B7C-C23A4E0DA8BD}">
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="56" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="E1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>3</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="5">
+        <f>SUM(B3:B13)</f>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/documentation/Backlog.xlsx
+++ b/documentation/Backlog.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
   <si>
     <t>TODO List</t>
   </si>
@@ -60,6 +60,45 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>No schedule over lunch hour</t>
+  </si>
+  <si>
+    <t>Multiday schedule</t>
+  </si>
+  <si>
+    <t>Pick all times from one day and choose another</t>
+  </si>
+  <si>
+    <t>Task list</t>
+  </si>
+  <si>
+    <t>attendees choose 0 or more tasks</t>
+  </si>
+  <si>
+    <t>Creator views list</t>
+  </si>
+  <si>
+    <t>Attendees can sign up for tasks (more than one), one attendee per event</t>
+  </si>
+  <si>
+    <t>Creator makes a list of tasks</t>
+  </si>
+  <si>
+    <t>Person</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zach </t>
+  </si>
+  <si>
+    <t>Matt</t>
+  </si>
+  <si>
+    <t>Coltyn</t>
+  </si>
+  <si>
+    <t>Jamison</t>
   </si>
 </sst>
 </file>
@@ -75,7 +114,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -100,6 +139,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -113,15 +158,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="16" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="16" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -439,25 +485,25 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="56" customWidth="1"/>
+    <col min="1" max="1" width="61" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="E1" s="3" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="E1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
@@ -469,13 +515,16 @@
       <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="4" t="s">
+      <c r="D2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>9</v>
       </c>
     </row>
@@ -489,13 +538,16 @@
       <c r="C3">
         <v>1</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>10</v>
       </c>
     </row>
@@ -509,14 +561,108 @@
       <c r="C4">
         <v>2</v>
       </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="4">
         <f>SUM(B3:B13)</f>
-        <v>5</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
